--- a/models/calculation engines/cbix2/outputs/panamax/data_tables/price_forecast_datatable.xlsx
+++ b/models/calculation engines/cbix2/outputs/panamax/data_tables/price_forecast_datatable.xlsx
@@ -731,7 +731,7 @@
         <v>65.48567446153146</v>
       </c>
       <c r="E6" t="n">
-        <v>64.06349099742782</v>
+        <v>64.06349099742783</v>
       </c>
       <c r="F6" t="n">
         <v>63.09685366146357</v>
@@ -786,7 +786,7 @@
         <v>50.16876087531535</v>
       </c>
       <c r="E7" t="n">
-        <v>50.37950985995999</v>
+        <v>50.37950985996001</v>
       </c>
       <c r="F7" t="n">
         <v>50.62129627724777</v>
@@ -1061,7 +1061,7 @@
         <v>54.35238192533002</v>
       </c>
       <c r="E12" t="n">
-        <v>53.56347006493613</v>
+        <v>53.56347006493615</v>
       </c>
       <c r="F12" t="n">
         <v>53.10638364209834</v>
@@ -1171,7 +1171,7 @@
         <v>80.1703090879098</v>
       </c>
       <c r="E14" t="n">
-        <v>78.76207630751641</v>
+        <v>78.76207630751644</v>
       </c>
       <c r="F14" t="n">
         <v>77.63411247117719</v>
@@ -1226,7 +1226,7 @@
         <v>69.67409534093606</v>
       </c>
       <c r="E15" t="n">
-        <v>68.35590263884919</v>
+        <v>68.35590263884922</v>
       </c>
       <c r="F15" t="n">
         <v>67.40709783999034</v>
@@ -1391,7 +1391,7 @@
         <v>72.56525749149985</v>
       </c>
       <c r="E18" t="n">
-        <v>70.47531773269013</v>
+        <v>70.47531773269014</v>
       </c>
       <c r="F18" t="n">
         <v>68.94126752723491</v>
@@ -1556,7 +1556,7 @@
         <v>50.88877731392603</v>
       </c>
       <c r="E21" t="n">
-        <v>51.1351815237299</v>
+        <v>51.13518152372992</v>
       </c>
       <c r="F21" t="n">
         <v>51.3990342736143</v>
@@ -1611,7 +1611,7 @@
         <v>71.87756427698095</v>
       </c>
       <c r="E22" t="n">
-        <v>71.54663237115366</v>
+        <v>71.54663237115368</v>
       </c>
       <c r="F22" t="n">
         <v>71.2063704999005</v>
@@ -1666,7 +1666,7 @@
         <v>68.79538049343461</v>
       </c>
       <c r="E23" t="n">
-        <v>68.34687291607125</v>
+        <v>68.34687291607128</v>
       </c>
       <c r="F23" t="n">
         <v>67.96728186321432</v>
@@ -1941,7 +1941,7 @@
         <v>52.84484821249966</v>
       </c>
       <c r="E28" t="n">
-        <v>51.41829665618749</v>
+        <v>51.41829665618751</v>
       </c>
       <c r="F28" t="n">
         <v>50.59146884277236</v>
@@ -1996,7 +1996,7 @@
         <v>74.25255502159308</v>
       </c>
       <c r="E29" t="n">
-        <v>73.02387335125103</v>
+        <v>73.02387335125104</v>
       </c>
       <c r="F29" t="n">
         <v>72.04804981278491</v>
@@ -2051,7 +2051,7 @@
         <v>65.48567446153146</v>
       </c>
       <c r="E30" t="n">
-        <v>64.06349099742782</v>
+        <v>64.06349099742783</v>
       </c>
       <c r="F30" t="n">
         <v>63.09685366146356</v>
@@ -2106,7 +2106,7 @@
         <v>65.48567446153146</v>
       </c>
       <c r="E31" t="n">
-        <v>64.06349099742782</v>
+        <v>64.06349099742783</v>
       </c>
       <c r="F31" t="n">
         <v>63.09685366146357</v>
@@ -2161,7 +2161,7 @@
         <v>44.78318840323462</v>
       </c>
       <c r="E32" t="n">
-        <v>45.17365297498549</v>
+        <v>45.1736529749855</v>
       </c>
       <c r="F32" t="n">
         <v>49.99440965501658</v>
@@ -2349,7 +2349,7 @@
         <v>75.27047413862573</v>
       </c>
       <c r="E36" t="n">
-        <v>73.68927407830807</v>
+        <v>73.68927407830809</v>
       </c>
       <c r="F36" t="n">
         <v>72.50769063068778</v>
@@ -2404,7 +2404,7 @@
         <v>61.82429480269662</v>
       </c>
       <c r="E37" t="n">
-        <v>61.20197103934457</v>
+        <v>61.20197103934459</v>
       </c>
       <c r="F37" t="n">
         <v>60.16377988835649</v>
@@ -2624,7 +2624,7 @@
         <v>61.79821747533729</v>
       </c>
       <c r="E41" t="n">
-        <v>60.42131704296465</v>
+        <v>60.42131704296467</v>
       </c>
       <c r="F41" t="n">
         <v>59.52633518866156</v>
@@ -2789,7 +2789,7 @@
         <v>67.32940295462855</v>
       </c>
       <c r="E44" t="n">
-        <v>65.88457797465942</v>
+        <v>65.88457797465944</v>
       </c>
       <c r="F44" t="n">
         <v>64.88211289786457</v>
